--- a/biology/Botanique/Xyris_smalliana/Xyris_smalliana.xlsx
+++ b/biology/Botanique/Xyris_smalliana/Xyris_smalliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xyris smalliana est une espèce de la famille des Xyridaceae. L’herbe aux yeux jaunes de Small est une espèce nord-américaine qui pousse dans la plaine côtière de l'Est et du Sud des États-Unis, du Maine au Texas, ainsi qu'à Cuba, en Amérique centrale et dans l'État de Tabasco dans le Sud du Mexique[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xyris smalliana est une espèce de la famille des Xyridaceae. L’herbe aux yeux jaunes de Small est une espèce nord-américaine qui pousse dans la plaine côtière de l'Est et du Sud des États-Unis, du Maine au Texas, ainsi qu'à Cuba, en Amérique centrale et dans l'État de Tabasco dans le Sud du Mexique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xyris smalliana est une herbe vivace dont la tige peut atteindre 60 cm de haut et dont les feuilles longues et étroites peuvent atteindre 20 cm de long[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xyris smalliana est une herbe vivace dont la tige peut atteindre 60 cm de haut et dont les feuilles longues et étroites peuvent atteindre 20 cm de long,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Xyris smalliana Nash[5].
-Xyris smalliana a pour synonymes[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Xyris smalliana Nash.
+Xyris smalliana a pour synonymes :
 Xyris caroliniana var. olneyi Alph.Wood
 Xyris congdonii Small
 Xyris congdonii Small ex Britton, 1905
